--- a/docassemble_demo/docassemble/demo/data/sources/questions_es.xlsx
+++ b/docassemble_demo/docassemble/demo/data/sources/questions_es.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="429">
   <si>
     <t xml:space="preserve">interview</t>
   </si>
@@ -1940,6 +1940,9 @@
     <t xml:space="preserve">complaint</t>
   </si>
   <si>
+    <t xml:space="preserve">complainto</t>
+  </si>
+  <si>
     <t xml:space="preserve">06ff8fe554612c09d6c47f7189ca7bad</t>
   </si>
   <si>
@@ -1947,6 +1950,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">A documento that you file in court to start a lawsuit.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Question_52</t>
   </si>
   <si>
@@ -1957,6 +1964,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Sorry, you cannot proceedo with the interviewo.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">a0c0859ae985d132f23c6c83a7b39bbc</t>
   </si>
   <si>
@@ -1969,6 +1980,57 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">You can only proceed with the interview if you agree that your
+completion of the interview does not create an attorney-client
+relationship.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% if user_understands_no_attorney_client_relationship == 'unsure':
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">We suggest that you call us at 202-555-4344 to talk to us about the
+kinds of services we provide.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You can only proceedo with the interview if you agree that your
 completion of the interview does not create an attorney-client
 relationship.
 </t>
@@ -5394,24 +5456,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H88" activeCellId="0" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="75.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,7 +7658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -7621,7 +7681,7 @@
         <v>219</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7635,7 +7695,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -7644,10 +7704,10 @@
         <v>12</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7655,13 +7715,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -7670,10 +7730,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7681,13 +7741,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -7696,10 +7756,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,13 +7767,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -7722,10 +7782,10 @@
         <v>12</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7733,13 +7793,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -7748,10 +7808,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="285" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7759,13 +7819,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -7774,10 +7834,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,13 +7845,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -7800,10 +7860,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7811,13 +7871,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -7826,10 +7886,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,13 +7897,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -7852,10 +7912,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,13 +7923,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -7878,10 +7938,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,13 +7949,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -7904,10 +7964,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7915,13 +7975,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -7930,10 +7990,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7941,13 +8001,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -7956,10 +8016,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7967,13 +8027,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -7982,10 +8042,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,13 +8053,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -8008,10 +8068,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8019,13 +8079,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -8034,10 +8094,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,13 +8105,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -8060,10 +8120,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,13 +8131,13 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -8086,10 +8146,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8097,13 +8157,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -8112,10 +8172,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8123,13 +8183,13 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -8138,10 +8198,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8149,13 +8209,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -8164,10 +8224,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,13 +8235,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -8190,10 +8250,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8201,13 +8261,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -8216,10 +8276,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,13 +8287,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -8242,10 +8302,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8253,13 +8313,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -8268,10 +8328,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8279,13 +8339,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -8294,10 +8354,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8305,13 +8365,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -8320,10 +8380,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8331,13 +8391,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -8346,10 +8406,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,13 +8417,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -8372,10 +8432,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,13 +8443,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -8398,10 +8458,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,13 +8469,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -8424,10 +8484,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8435,13 +8495,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -8450,10 +8510,10 @@
         <v>12</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,13 +8521,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -8476,10 +8536,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8487,13 +8547,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -8502,10 +8562,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8513,13 +8573,13 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -8528,10 +8588,10 @@
         <v>12</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8539,13 +8599,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -8554,10 +8614,10 @@
         <v>12</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,13 +8625,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -8580,10 +8640,10 @@
         <v>12</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8591,13 +8651,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -8606,10 +8666,10 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8617,13 +8677,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -8632,10 +8692,10 @@
         <v>12</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8643,13 +8703,13 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
@@ -8658,10 +8718,10 @@
         <v>12</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8669,13 +8729,13 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -8684,10 +8744,10 @@
         <v>12</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8695,13 +8755,13 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
@@ -8710,10 +8770,10 @@
         <v>12</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8721,13 +8781,13 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
@@ -8736,10 +8796,10 @@
         <v>12</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,13 +8807,13 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
@@ -8762,10 +8822,10 @@
         <v>12</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8773,13 +8833,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -8788,10 +8848,10 @@
         <v>12</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="1380" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8799,13 +8859,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -8814,10 +8874,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8825,13 +8885,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -8840,10 +8900,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8851,13 +8911,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -8866,10 +8926,10 @@
         <v>12</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8877,13 +8937,13 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
@@ -8892,10 +8952,10 @@
         <v>12</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="1125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8903,13 +8963,13 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -8918,10 +8978,10 @@
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8929,13 +8989,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -8944,10 +9004,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8955,13 +9015,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -8970,10 +9030,10 @@
         <v>12</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8981,13 +9041,13 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
@@ -8996,10 +9056,10 @@
         <v>12</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,13 +9067,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -9022,10 +9082,10 @@
         <v>12</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,13 +9093,13 @@
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -9048,10 +9108,10 @@
         <v>12</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9059,13 +9119,13 @@
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -9074,10 +9134,10 @@
         <v>12</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,13 +9145,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -9100,10 +9160,10 @@
         <v>12</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9111,13 +9171,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -9126,10 +9186,10 @@
         <v>12</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9137,13 +9197,13 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -9152,10 +9212,10 @@
         <v>12</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9163,13 +9223,13 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
@@ -9178,10 +9238,10 @@
         <v>12</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,13 +9249,13 @@
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
@@ -9204,10 +9264,10 @@
         <v>12</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9215,13 +9275,13 @@
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -9230,10 +9290,10 @@
         <v>12</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9241,13 +9301,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -9256,10 +9316,10 @@
         <v>12</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9267,13 +9327,13 @@
         <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>11</v>
@@ -9282,10 +9342,10 @@
         <v>12</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9293,13 +9353,13 @@
         <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>11</v>
@@ -9308,10 +9368,10 @@
         <v>12</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9319,13 +9379,13 @@
         <v>8</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>11</v>
@@ -9334,10 +9394,10 @@
         <v>12</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9345,13 +9405,13 @@
         <v>8</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>11</v>
@@ -9360,10 +9420,10 @@
         <v>12</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9371,13 +9431,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>11</v>
@@ -9386,10 +9446,10 @@
         <v>12</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9397,13 +9457,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>11</v>
@@ -9412,10 +9472,10 @@
         <v>12</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,13 +9483,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>11</v>
@@ -9438,10 +9498,10 @@
         <v>12</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9449,13 +9509,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>11</v>
@@ -9464,10 +9524,10 @@
         <v>12</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9475,13 +9535,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>11</v>
@@ -9490,10 +9550,10 @@
         <v>12</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9501,13 +9561,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>11</v>
@@ -9516,10 +9576,10 @@
         <v>12</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9527,13 +9587,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>11</v>
@@ -9542,10 +9602,10 @@
         <v>12</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9553,13 +9613,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>11</v>
@@ -9568,10 +9628,10 @@
         <v>12</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9579,13 +9639,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>11</v>
@@ -9594,10 +9654,10 @@
         <v>12</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9605,13 +9665,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>11</v>
@@ -9620,10 +9680,10 @@
         <v>12</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9631,13 +9691,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>11</v>
@@ -9646,10 +9706,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,13 +9717,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>11</v>
@@ -9672,10 +9732,10 @@
         <v>12</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9683,13 +9743,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>11</v>
@@ -9698,10 +9758,10 @@
         <v>12</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9709,13 +9769,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>11</v>
@@ -9724,10 +9784,10 @@
         <v>12</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9735,13 +9795,13 @@
         <v>8</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>11</v>
@@ -9750,10 +9810,10 @@
         <v>12</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9761,13 +9821,13 @@
         <v>8</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>11</v>
@@ -9776,10 +9836,10 @@
         <v>12</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,13 +9847,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>11</v>
@@ -9802,10 +9862,10 @@
         <v>12</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9813,13 +9873,13 @@
         <v>8</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>1007</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>11</v>
@@ -9828,10 +9888,10 @@
         <v>12</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9839,13 +9899,13 @@
         <v>8</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>1009</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>11</v>
@@ -9854,10 +9914,10 @@
         <v>12</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
